--- a/data/seguidores-por-alinhamento_sumarizada.xlsx
+++ b/data/seguidores-por-alinhamento_sumarizada.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +412,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -488,21 +488,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="b">
-        <v>1</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>favoravel</t>
+          <t>contrario</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Racismo reverso não existe"</t>
+          <t>"Aceitação apenas de critérios universais"</t>
         </is>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -513,11 +510,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Aceitação apenas de critérios universais"</t>
+          <t>"O trainee magalu desrespeita a meritocracia"</t>
         </is>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -528,11 +525,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"O trainee magalu desrespeita a meritocracia"</t>
+          <t>"O trainee magalu promove o racismo"</t>
         </is>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -543,11 +540,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"O trainee magalu promove o racismo"</t>
+          <t>"O trainee magalu realiza um 'apartheid' na sociedade"</t>
         </is>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -558,26 +555,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"O trainee magalu realiza um 'apartheid' na sociedade"</t>
+          <t>"Posicionamentos contrários variados"</t>
         </is>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>contrario</t>
+          <t>favoravel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Posicionamentos contrários variados"</t>
+          <t>"O trainee magalu é uma ação afirmativa desejável"</t>
         </is>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -588,26 +585,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"O trainee magalu é uma ação afirmativa desejável"</t>
+          <t>"Racismo reverso não existe"</t>
         </is>
       </c>
       <c r="D14">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>favoravel</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>"Racismo reverso não existe"</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/seguidores-por-alinhamento_sumarizada.xlsx
+++ b/data/seguidores-por-alinhamento_sumarizada.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,21 +470,18 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>favoravel</t>
+          <t>contrario</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"O trainee magalu é uma ação afirmativa desejável"</t>
+          <t>"Aceitação apenas de critérios universais"</t>
         </is>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -495,11 +492,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Aceitação apenas de critérios universais"</t>
+          <t>"O trainee magalu desrespeita a meritocracia"</t>
         </is>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -510,11 +507,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"O trainee magalu desrespeita a meritocracia"</t>
+          <t>"O trainee magalu promove o racismo"</t>
         </is>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -525,11 +522,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"O trainee magalu promove o racismo"</t>
+          <t>"O trainee magalu realiza um 'apartheid' na sociedade"</t>
         </is>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -540,26 +537,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"O trainee magalu realiza um 'apartheid' na sociedade"</t>
+          <t>"Posicionamentos contrários variados"</t>
         </is>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>contrario</t>
+          <t>favoravel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Posicionamentos contrários variados"</t>
+          <t>"O trainee magalu é uma ação afirmativa desejável"</t>
         </is>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -570,25 +567,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"O trainee magalu é uma ação afirmativa desejável"</t>
+          <t>"Racismo reverso não existe"</t>
         </is>
       </c>
       <c r="D13">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>favoravel</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>"Racismo reverso não existe"</t>
-        </is>
-      </c>
-      <c r="D14">
         <v>171</v>
       </c>
     </row>
